--- a/Old Xibar UI - 04.xlsx
+++ b/Old Xibar UI - 04.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABDP\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ABBB9C-C2E6-4E9D-84C2-DE84083E2B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75C5AF2-DAD3-4666-BFB4-36B178EB9E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{439BA09D-FF53-4D7C-A2C2-F70447E9A78A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{439BA09D-FF53-4D7C-A2C2-F70447E9A78A}"/>
   </bookViews>
   <sheets>
     <sheet name="001" sheetId="1" r:id="rId1"/>
     <sheet name="002" sheetId="2" r:id="rId2"/>
     <sheet name="003" sheetId="3" r:id="rId3"/>
-    <sheet name="001 (51)" sheetId="4" r:id="rId4"/>
-    <sheet name="001 (52)" sheetId="5" r:id="rId5"/>
+    <sheet name="004" sheetId="4" r:id="rId4"/>
+    <sheet name="005" sheetId="5" r:id="rId5"/>
     <sheet name="001 (53)" sheetId="6" r:id="rId6"/>
     <sheet name="001 (54)" sheetId="7" r:id="rId7"/>
     <sheet name="001 (55)" sheetId="8" r:id="rId8"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <r>
       <t xml:space="preserve">Debt Management | </t>
@@ -182,6 +182,45 @@
   </si>
   <si>
     <t>Perintah Kerja Semua</t>
+  </si>
+  <si>
+    <t>Hapus Semua</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Debt Management | Penyegelan | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pembuatan Berta Acara (BA) Penyegelan</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/bill/debtManagement/ps/baPS/pkPS/BaPkPSAction_list.action</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Debt Management | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pembayaran Pelunasan Tunggakan</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/bill/debtManagement/collection/debt/DebtAction_list.action</t>
   </si>
 </sst>
 </file>
@@ -536,6 +575,164 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13820D79-F6A6-E7D4-FF3B-128C19F70C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="762000"/>
+          <a:ext cx="10600000" cy="3780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>122500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336AE913-4208-4D6F-8A9A-CE340E2F9D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="5334000"/>
+          <a:ext cx="10600000" cy="3780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>122500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF07D222-4CFD-3894-8DCA-046F67AF17BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="9906000"/>
+          <a:ext cx="10600000" cy="3780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>122500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5381D450-32BD-8702-8354-B87D1BD6195C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,9 +1296,7 @@
   </sheetPr>
   <dimension ref="B2:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1314,11 +1509,9 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="B2:B27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+  <dimension ref="B2:B51"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1340,6 +1533,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1518,18 +1716,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9DF94C-8365-4AE4-A3B9-98EC94A4E239}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetPr>
+    <tabColor rgb="FF0000FF"/>
+  </sheetPr>
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1705,17 +1917,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0DC0B9-8858-4189-9F72-B7FE682A6F52}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Old Xibar UI - 04.xlsx
+++ b/Old Xibar UI - 04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABDP\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75C5AF2-DAD3-4666-BFB4-36B178EB9E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44777935-E5A1-4010-92BD-F19ED552D0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{439BA09D-FF53-4D7C-A2C2-F70447E9A78A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{439BA09D-FF53-4D7C-A2C2-F70447E9A78A}"/>
   </bookViews>
   <sheets>
     <sheet name="001" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="003" sheetId="3" r:id="rId3"/>
     <sheet name="004" sheetId="4" r:id="rId4"/>
     <sheet name="005" sheetId="5" r:id="rId5"/>
-    <sheet name="001 (53)" sheetId="6" r:id="rId6"/>
+    <sheet name="006" sheetId="6" r:id="rId6"/>
     <sheet name="001 (54)" sheetId="7" r:id="rId7"/>
     <sheet name="001 (55)" sheetId="8" r:id="rId8"/>
     <sheet name="001 (56)" sheetId="9" r:id="rId9"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <r>
       <t xml:space="preserve">Debt Management | </t>
@@ -221,6 +221,24 @@
   </si>
   <si>
     <t>http://localhost:8080/Xibar/pages/bill/debtManagement/collection/debt/DebtAction_list.action</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Debt Management | Pemutihan | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pendaftaran Pemutihan</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/registration/correction/pemutihan/CorrectionPemutihanAction_list.action</t>
   </si>
 </sst>
 </file>
@@ -750,6 +768,62 @@
         <a:xfrm>
           <a:off x="190500" y="762000"/>
           <a:ext cx="10600000" cy="3780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>122500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C83E092-9EB4-6D09-BCBD-73915685CB7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="762000"/>
+          <a:ext cx="10600000" cy="2295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1922,9 +1996,7 @@
   </sheetPr>
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1943,6 +2015,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2118,17 +2191,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D39AF0B-4DBD-4CB6-98E8-9345E12281C1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
